--- a/Interviews_Columns/Interview 2.xlsx
+++ b/Interviews_Columns/Interview 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad\LMS\_Project\GIT\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7152"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,98 +448,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Interviews_Columns/Interview 2.xlsx
+++ b/Interviews_Columns/Interview 2.xlsx
@@ -109,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,7 +130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -168,6 +174,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,12 +458,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,13 +480,13 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
